--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Southern Giant Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Southern Giant Petrel_Prince Edward Islands.xlsx
@@ -2968,13 +2968,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59EA8D72-BDF8-4217-856F-1941D56E8DA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3B4B0A-FBDA-4F84-B9F2-5F01D1CD0984}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F32AEC71-1493-41B5-9FCD-79F48B2C805A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F133B5C-640C-4CD8-8A70-A257B6ACCBA4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0FBADF2-40C1-46DC-B8A2-BB7092C25D33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0007D03-FB68-4A66-B00D-3873EAA768DB}"/>
 </file>